--- a/variableCountOverview.xlsx
+++ b/variableCountOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexK\Documents\GitHub\DiningWithFriends_Heuristic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30ECF84-B877-4291-AE13-94705C3E8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9EE298-1640-456A-B233-6E65F4B40DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F855B3C-1819-4CD3-951A-56E1306E9522}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>7560</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E4:E17" si="4">_xlfn.CEILING.MATH(A8/4)</f>
+        <f t="shared" ref="E8:E17" si="4">_xlfn.CEILING.MATH(A8/4)</f>
         <v>6</v>
       </c>
       <c r="F8">
